--- a/SPA/Proyectos/SPA_Q10/Acetona.xlsx
+++ b/SPA/Proyectos/SPA_Q10/Acetona.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel\Documents\ARI\SPA\Proyectos\SPA_Q10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel0\Documents\ARI\SPA\Proyectos\SPA_Q10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95FFA53-99A4-493C-B08F-0F170DA532D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC9B055-82EA-476A-A578-D630ADB2D2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DD2E7B01-D378-4EA6-86D3-BC7AABDEC563}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{DD2E7B01-D378-4EA6-86D3-BC7AABDEC563}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Nivel líquido (m)</t>
+    <t>volumen (m3)</t>
   </si>
   <si>
-    <t>peso (kg)</t>
+    <t>Niveles porcentuales</t>
   </si>
   <si>
-    <t>sensor (mA)</t>
+    <t>peso  medido en la célula de carga (kg)</t>
   </si>
   <si>
-    <t>lectura (bits)</t>
+    <t>Nivel del líquido en el tanque (m)</t>
   </si>
   <si>
-    <t>volumen (m3)</t>
+    <t>Señal en la célula de carga (mA)</t>
+  </si>
+  <si>
+    <t>Lectura en la entrada analógica (bits)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -82,16 +100,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -107,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -403,278 +528,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A4421-FE6D-4FE7-9B76-907D0F01B3DE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2*(2.5^2)*PI()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f xml:space="preserve"> 784 *C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <f>((16/200000)*D2) + 4</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <f>(E2 * 100) - 5</f>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C14" si="0">B3*(2.5^2)*PI()</f>
+        <v>19.634954084936208</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D14" si="1" xml:space="preserve"> 784 *C3</f>
+        <v>15393.804002589986</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E14" si="2">((16/200000)*D3) + 4</f>
+        <v>5.2315043202071987</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F14" si="3">(E3 * 100) - 5</f>
+        <v>518.1504320207199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>39.269908169872416</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>30787.608005179973</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="2"/>
+        <v>6.4630086404143974</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="3"/>
+        <v>641.3008640414397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>58.90486225480862</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>46181.412007769955</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="2"/>
+        <v>7.694512960621597</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>764.45129606215971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>0.3332</v>
+      </c>
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>395</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>78.539816339744831</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>61575.216010359945</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="2"/>
+        <v>8.9260172808287948</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>887.6017280828795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>98.174770424681029</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>76969.020012949928</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="2"/>
+        <v>10.157521601035995</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>1010.7521601035995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>117.80972450961724</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>92362.824015539911</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>11.389025921243194</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>1133.9025921243194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>137.44467859455344</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>107756.62801812989</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="2"/>
+        <v>12.620530241450393</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>1257.0530241450392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>123150.43202071989</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
+        <v>13.852034561657591</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="3"/>
+        <v>1380.2034561657592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>176.71458676442586</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>138544.23602330987</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>15.08353888186479</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>1503.353888186479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>196.34954084936206</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>153938.04002589986</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="2"/>
+        <v>16.31504320207199</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>1626.504320207199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>0.9163</v>
+      </c>
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>215.98449493429828</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>169331.84402848987</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>17.546547522279191</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>1749.6547522279191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <f>B2+16666.6667</f>
-        <v>16666.666700000002</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2+1.33333</f>
-        <v>5.3333300000000001</v>
-      </c>
-      <c r="D3">
-        <v>525</v>
-      </c>
-      <c r="E3">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B14" si="0">B3+16666.6667</f>
-        <v>33333.333400000003</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C14" si="1">C3+1.33333</f>
-        <v>6.6666600000000003</v>
-      </c>
-      <c r="D4">
-        <v>665</v>
-      </c>
-      <c r="E4">
-        <v>43.18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>50000.000100000005</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>7.9999900000000004</v>
-      </c>
-      <c r="D5">
-        <v>796</v>
-      </c>
-      <c r="E5">
-        <v>63.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>66666.666800000006</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>9.3333200000000005</v>
-      </c>
-      <c r="D6">
-        <v>926</v>
-      </c>
-      <c r="E6">
-        <v>84.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>83333.333500000008</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>10.666650000000001</v>
-      </c>
-      <c r="D7">
-        <v>1065</v>
-      </c>
-      <c r="E7">
-        <v>106.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>100000.00020000001</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>11.999980000000001</v>
-      </c>
-      <c r="D8">
-        <v>1196</v>
-      </c>
-      <c r="E8">
-        <v>127.63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>116666.66690000001</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>13.333310000000001</v>
-      </c>
-      <c r="D9">
-        <v>1326</v>
-      </c>
-      <c r="E9">
-        <v>148.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>133333.33360000001</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>14.666640000000001</v>
-      </c>
-      <c r="D10">
-        <v>1466</v>
-      </c>
-      <c r="E10">
-        <v>170.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>150000.00030000001</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>15.999970000000001</v>
-      </c>
-      <c r="D11">
-        <v>1595</v>
-      </c>
-      <c r="E11">
-        <v>191.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>166666.66700000002</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>17.333300000000001</v>
-      </c>
-      <c r="D12">
-        <v>1725</v>
-      </c>
-      <c r="E12">
-        <v>211.92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>183333.33370000002</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>18.666630000000001</v>
-      </c>
-      <c r="D13">
-        <v>1865</v>
-      </c>
-      <c r="E13">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>200000.00040000002</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>19.999960000000002</v>
-      </c>
-      <c r="D14">
-        <v>1995</v>
-      </c>
-      <c r="E14">
-        <v>255.11</v>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>235.61944901923448</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>184725.64803107982</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>18.778051842486388</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="3"/>
+        <v>1872.8051842486389</v>
       </c>
     </row>
   </sheetData>
